--- a/biology/Médecine/Jean_Tricoire_(médecin)/Jean_Tricoire_(médecin).xlsx
+++ b/biology/Médecine/Jean_Tricoire_(médecin)/Jean_Tricoire_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Tricoire_(m%C3%A9decin)</t>
+          <t>Jean_Tricoire_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Clément Anatole Tricoire (Saint-Martin-des-Noyers, Vendée, 28 janvier 1921 - Châteaubriant, Loire-Atlantique, 17 mars 1994) est un pneumo-phtisiologue, connu pour son engagement dans la préservation du patrimoine culturel breton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Tricoire_(m%C3%A9decin)</t>
+          <t>Jean_Tricoire_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Anatole Gustave Jean Marie Tricoire (Chavagnes-en-Paillers, Vendée, 10 septembre 1885 - Saint-Martin-des-Noyers, Vendée, 11 mai 1924) et de Marie Hélène Joséphine Célestine Gilbert (Saint-Martin-des-Noyers, Vendée, 2 février 1893 - 1986). 
 Il a fait à Nantes ses études de médecine, se spécialisant dans la pneumo-phtisiologie. Après avoir soutenu une thèse sur Les processus de guérison des cavernes pulmonaires tuberculeuses en 1946, il s’installe à Châteaubriant où il fera toute sa carrière comme médecin pneumo-phtisiologue, devenant dès 1950 membre de la Société française de pathologie respiratoire et en 1960 membre de l’Association internationale d’asthmologie. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Tricoire_(m%C3%A9decin)</t>
+          <t>Jean_Tricoire_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Komzom, lennom ha skrivom brezoneg. Parlons, lisons et écrivons le breton, lodenn genta, première partie, [1955], Brest, Emgleo Breiz, 4e ed. 1983, 151 p.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Komzom, lennom ha skrivom brezoneg. Parlons, lisons et écrivons le breton, lodenn genta, première partie, , Brest, Emgleo Breiz, 4e ed. 1983, 151 p.
 Parlons, lisons et écrivons le breton, premier disque (leçons 1 à 12), avec Loeiz Ropars, Pierre Mevel, Jean Moulin, Quimper, Mouez Breiz, 1960,
 Parlons, lisons et écrivons le breton, 2ème disque (leçons 13 à 24), Quimper, Mouez Breiz, 1962 (Mouez Breiz 513)
 Komzom brezoneg. Parlons breton, eil lodenn, deuxième partie, Brest, Emgleo Breiz, 3e ed. 2005, 230 p.
-Me a gomzo brezoneg, Méthode pour parler breton, premier niveau, [1990], Brest, Ar Skol Vrezoneg / Emgleo Breiz, 3e ed. 2001, 180 p.  (ISBN 2-906373-70-2)
+Me a gomzo brezoneg, Méthode pour parler breton, premier niveau, , Brest, Ar Skol Vrezoneg / Emgleo Breiz, 3e ed. 2001, 180 p.  (ISBN 2-906373-70-2)
 Petit lexique des mots spéciaux à Glomel et aux environs (s.d.), 12 p.
 Préface de Pour la langue, la culture et les libertés bretonnes, Quimper, Imprimerie cornouaillaise, 1973.</t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Tricoire_(m%C3%A9decin)</t>
+          <t>Jean_Tricoire_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décoré de l'ordre de l'Hermine en 1993.
 </t>
